--- a/ezclimate/hessian.xlsx
+++ b/ezclimate/hessian.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Columbia\wri\Litterman_Carbon_Pricing\ezclimate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HoneyShu/Desktop/Litterman_Carbon_Pricing/ezclimate/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -56,7 +65,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,13 +382,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>2.9767299736249702</v>
       </c>
@@ -570,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4.2734704663871499</v>
       </c>
@@ -761,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.53850257586418604</v>
       </c>
@@ -952,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7.5713657565756902</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.587885295999513</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.439737135593532</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.48725468104748898</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.89173113337892596</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.72368777637166204</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.88684615207057504</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.43858250364792201</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.65716321273612299</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.49160675530401898</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.19015908239817</v>
       </c>
@@ -3053,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.118216547662087</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.23332447085522301</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>7.3718808835110394E-2</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8.6508578078792198E-2</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>8.6508578078792198E-2</v>
       </c>
@@ -4008,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>9.6278540695493603E-2</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.11874945471390699</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>9.3169916226543095E-2</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6.5725203057809295E-2</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.101785246897634</v>
       </c>
@@ -4963,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.15045742429720099</v>
       </c>
@@ -5154,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>7.0699002208129996E-2</v>
       </c>
@@ -5345,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>4.5652370772586402E-2</v>
       </c>
@@ -5536,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>7.9758422089071301E-2</v>
       </c>
@@ -5727,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4.2010839251815903E-2</v>
       </c>
@@ -5918,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>7.2564176889500204E-2</v>
       </c>
@@ -6109,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4.5030645878796301E-2</v>
       </c>
@@ -6300,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>6.7590377739179502E-2</v>
       </c>
@@ -6491,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1.28785870856518E-2</v>
       </c>
@@ -6682,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1.88293824976427E-2</v>
       </c>
@@ -6873,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1.21680443498917E-2</v>
       </c>
@@ -7064,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2.0072832285222799E-2</v>
       </c>
@@ -7255,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1.1635137298071601E-2</v>
       </c>
@@ -7446,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1.34114941374719E-2</v>
       </c>
@@ -7637,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>3.7747582837255302E-2</v>
       </c>
@@ -7828,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2.1316282072802999E-2</v>
       </c>
@@ -8019,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1.03916875104915E-2</v>
       </c>
@@ -8210,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1.34114941374719E-2</v>
       </c>
@@ -8401,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>7.9225515037251198E-2</v>
       </c>
@@ -8592,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1.27897692436818E-2</v>
       </c>
@@ -8783,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>4.2632564145605997E-2</v>
       </c>
@@ -8974,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1.34114941374719E-2</v>
       </c>
@@ -9165,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>5.5067062021407799E-3</v>
       </c>
@@ -9356,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2.3803181647963401E-2</v>
       </c>
@@ -9547,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1.10134124042816E-2</v>
       </c>
@@ -9738,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1.20792265079217E-2</v>
       </c>
@@ -9929,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.114486198299346</v>
       </c>
@@ -10120,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1.21680443498917E-2</v>
       </c>
@@ -10311,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1.6431300764452299E-2</v>
       </c>
@@ -10502,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1.5276668818842201E-2</v>
       </c>
@@ -10693,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1.86517468137026E-3</v>
       </c>
@@ -10884,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1.4033219031261999E-2</v>
       </c>
@@ -11075,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2.3714363805993299E-2</v>
       </c>
@@ -11266,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1.51878509768721E-2</v>
       </c>
@@ -11457,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -11648,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1.28785870856518E-2</v>
       </c>
@@ -11839,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2.8599345114344001E-2</v>
       </c>
@@ -12030,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>3.8991032624835498E-2</v>
       </c>
@@ -12221,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
